--- a/StructureDefinition-ext-R5-InventoryReport.xlsx
+++ b/StructureDefinition-ext-R5-InventoryReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -883,7 +883,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:concept.id</t>
@@ -910,7 +910,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -1326,7 +1326,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="110.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-InventoryReport.xlsx
+++ b/StructureDefinition-ext-R5-InventoryReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="329">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -388,6 +388,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.status</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -435,6 +438,9 @@
     <t>Extension.extension:countType.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.countType</t>
+  </si>
+  <si>
     <t>Extension.extension:countType.value[x]</t>
   </si>
   <si>
@@ -460,6 +466,9 @@
   </si>
   <si>
     <t>Extension.extension:operationType.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.operationType</t>
   </si>
   <si>
     <t>Extension.extension:operationType.value[x]</t>
@@ -493,6 +502,9 @@
     <t>Extension.extension:operationTypeReason.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.operationTypeReason</t>
+  </si>
+  <si>
     <t>Extension.extension:operationTypeReason.value[x]</t>
   </si>
   <si>
@@ -518,6 +530,9 @@
   </si>
   <si>
     <t>Extension.extension:reportedDateTime.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.reportedDateTime</t>
   </si>
   <si>
     <t>Extension.extension:reportedDateTime.value[x]</t>
@@ -551,6 +566,9 @@
     <t>Extension.extension:reporter.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.reporter</t>
+  </si>
+  <si>
     <t>Extension.extension:reporter.value[x]</t>
   </si>
   <si>
@@ -582,6 +600,9 @@
     <t>Extension.extension:reportingPeriod.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.reportingPeriod</t>
+  </si>
+  <si>
     <t>Extension.extension:reportingPeriod.value[x]</t>
   </si>
   <si>
@@ -643,6 +664,9 @@
     <t>Extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.location</t>
+  </si>
+  <si>
     <t>Extension.extension:inventoryListing.extension:location.value[x]</t>
   </si>
   <si>
@@ -677,6 +701,9 @@
     <t>Extension.extension:inventoryListing.extension:itemStatus.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.itemStatus</t>
+  </si>
+  <si>
     <t>Extension.extension:inventoryListing.extension:itemStatus.value[x]</t>
   </si>
   <si>
@@ -704,6 +731,9 @@
     <t>Extension.extension:inventoryListing.extension:countingDateTime.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.countingDateTime</t>
+  </si>
+  <si>
     <t>Extension.extension:inventoryListing.extension:countingDateTime.value[x]</t>
   </si>
   <si>
@@ -764,6 +794,9 @@
     <t>Extension.extension.extension.extension.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item.category</t>
+  </si>
+  <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:category.value[x]</t>
   </si>
   <si>
@@ -792,6 +825,9 @@
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:quantity.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item.quantity</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:quantity.value[x]</t>
@@ -882,8 +918,8 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
+Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:concept.id</t>
@@ -910,8 +946,8 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
+    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
+Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:reference.id</t>
@@ -933,6 +969,9 @@
     <t>Extension.extension:inventoryListing.extension:item.extension:item.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.inventoryListing.item.item</t>
+  </si>
+  <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.value[x]</t>
   </si>
   <si>
@@ -980,6 +1019,9 @@
   </si>
   <si>
     <t>Extension.extension:note.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-InventoryReport.note</t>
   </si>
   <si>
     <t>Extension.extension:note.value[x]</t>
@@ -1326,7 +1368,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.078125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -2132,7 +2174,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -2174,7 +2216,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -2189,15 +2231,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2220,7 +2262,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -2277,7 +2319,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2289,21 +2331,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2328,14 +2370,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2404,7 +2446,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2507,7 +2549,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2612,7 +2654,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2655,7 +2697,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2697,7 +2739,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2712,15 +2754,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2743,13 +2785,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2800,7 +2842,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2812,21 +2854,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2851,14 +2893,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2927,7 +2969,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3030,7 +3072,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3135,7 +3177,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3178,7 +3220,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3220,7 +3262,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -3235,15 +3277,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3266,13 +3308,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3323,7 +3365,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3335,21 +3377,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3374,14 +3416,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3450,7 +3492,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3553,7 +3595,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3658,7 +3700,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3701,7 +3743,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3743,7 +3785,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3758,15 +3800,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3789,13 +3831,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3846,7 +3888,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3858,21 +3900,21 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3897,14 +3939,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3973,7 +4015,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4076,7 +4118,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4181,7 +4223,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4224,7 +4266,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4266,7 +4308,7 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
@@ -4281,15 +4323,15 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4312,13 +4354,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4369,7 +4411,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4381,21 +4423,21 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4420,14 +4462,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4496,7 +4538,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4599,7 +4641,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4704,7 +4746,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4747,7 +4789,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4789,7 +4831,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>86</v>
@@ -4804,15 +4846,15 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4835,13 +4877,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4892,7 +4934,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4904,21 +4946,21 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4943,14 +4985,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5019,7 +5061,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5122,7 +5164,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5227,7 +5269,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5270,7 +5312,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5312,7 +5354,7 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>86</v>
@@ -5327,15 +5369,15 @@
         <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5358,13 +5400,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5415,7 +5457,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5427,21 +5469,21 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5466,14 +5508,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5542,7 +5584,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5645,7 +5687,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5748,13 +5790,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5779,14 +5821,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5855,10 +5897,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5958,10 +6000,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6063,10 +6105,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6106,7 +6148,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6148,7 +6190,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
@@ -6163,15 +6205,15 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6194,13 +6236,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6251,7 +6293,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6263,21 +6305,21 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6302,14 +6344,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6378,10 +6420,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6481,10 +6523,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6586,10 +6628,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6629,7 +6671,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6671,7 +6713,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>86</v>
@@ -6686,15 +6728,15 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6717,13 +6759,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6774,7 +6816,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6786,21 +6828,21 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6825,14 +6867,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6901,10 +6943,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7004,10 +7046,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7109,10 +7151,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7152,7 +7194,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7194,7 +7236,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
@@ -7209,15 +7251,15 @@
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7240,13 +7282,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7297,7 +7339,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7309,21 +7351,21 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7348,14 +7390,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7424,10 +7466,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7527,10 +7569,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7538,7 +7580,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -7630,13 +7672,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -7661,14 +7703,14 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -7737,10 +7779,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7840,10 +7882,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7945,10 +7987,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7988,7 +8030,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8030,7 +8072,7 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>86</v>
@@ -8045,15 +8087,15 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8076,13 +8118,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8133,7 +8175,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8145,21 +8187,21 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8184,14 +8226,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8260,10 +8302,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8363,10 +8405,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8468,10 +8510,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="B69" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="B69" t="s" s="2">
-        <v>241</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8511,7 +8553,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>245</v>
+        <v>263</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8553,7 +8595,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>86</v>
@@ -8568,15 +8610,15 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8599,13 +8641,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8656,7 +8698,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -8668,21 +8710,21 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8707,14 +8749,14 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8783,10 +8825,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8886,10 +8928,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -8989,13 +9031,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>77</v>
@@ -9020,10 +9062,10 @@
         <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9094,10 +9136,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9197,10 +9239,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9302,10 +9344,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9345,7 +9387,7 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>77</v>
@@ -9387,7 +9429,7 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>86</v>
@@ -9402,15 +9444,15 @@
         <v>77</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9436,13 +9478,13 @@
         <v>87</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -9450,7 +9492,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9492,7 +9534,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -9504,21 +9546,21 @@
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
@@ -9543,14 +9585,14 @@
         <v>94</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -9619,10 +9661,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9722,10 +9764,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9827,10 +9869,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9870,7 +9912,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -9912,7 +9954,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>86</v>
@@ -9927,15 +9969,15 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -9958,13 +10000,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10015,7 +10057,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -10027,21 +10069,21 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
@@ -10066,14 +10108,14 @@
         <v>94</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -10142,10 +10184,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10245,10 +10287,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10350,10 +10392,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10393,7 +10435,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -10435,7 +10477,7 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>86</v>
@@ -10450,15 +10492,15 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10481,13 +10523,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10538,7 +10580,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -10550,18 +10592,18 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10601,7 +10643,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -10643,7 +10685,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>86</v>
@@ -10658,15 +10700,15 @@
         <v>77</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10689,13 +10731,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10746,7 +10788,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -10758,18 +10800,18 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10809,7 +10851,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -10851,7 +10893,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>86</v>
@@ -10866,15 +10908,15 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10897,13 +10939,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -10954,7 +10996,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -10966,15 +11008,15 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11017,7 +11059,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11059,7 +11101,7 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>86</v>
@@ -11074,15 +11116,15 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11105,13 +11147,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11162,7 +11204,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11174,21 +11216,21 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11213,14 +11255,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11289,7 +11331,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11392,7 +11434,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -11497,7 +11539,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11540,7 +11582,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11582,7 +11624,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>86</v>
@@ -11597,15 +11639,15 @@
         <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11628,13 +11670,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11685,7 +11727,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -11697,18 +11739,18 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -11790,7 +11832,7 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>86</v>
@@ -11805,15 +11847,15 @@
         <v>77</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11836,13 +11878,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -11893,7 +11935,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -11905,10 +11947,10 @@
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-InventoryReport.xlsx
+++ b/StructureDefinition-ext-R5-InventoryReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -572,7 +572,7 @@
     <t>Extension.extension:reporter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
 </t>
   </si>
   <si>
@@ -673,7 +673,7 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
 </t>
   </si>
   <si>
@@ -918,8 +918,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:concept.id</t>
@@ -946,8 +945,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:reference.id</t>
@@ -962,7 +960,7 @@
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|0.0.1-snapshot-3|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
 </t>
   </si>
   <si>
@@ -1368,7 +1366,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="135.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="110.61328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-InventoryReport.xlsx
+++ b/StructureDefinition-ext-R5-InventoryReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3352" uniqueCount="334">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -407,6 +407,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the InventoryReport.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-inventoryreport-status-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.value[x]</t>
   </si>
   <si>
@@ -444,6 +453,12 @@
     <t>Extension.extension:countType.value[x]</t>
   </si>
   <si>
+    <t>The type of count.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-inventoryreport-counttype-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:operationType</t>
   </si>
   <si>
@@ -572,7 +587,7 @@
     <t>Extension.extension:reporter.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1)
 </t>
   </si>
   <si>
@@ -673,7 +688,7 @@
     <t>Extension.extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1)
 </t>
   </si>
   <si>
@@ -918,7 +933,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:concept.id</t>
@@ -945,7 +960,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:reference.id</t>
@@ -960,7 +975,7 @@
     <t>Extension.extension:inventoryListing.extension:item.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-InventoryItem|0.0.1-snapshot-3|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1)
 </t>
   </si>
   <si>
@@ -1366,7 +1381,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="110.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="131.76171875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1376,8 +1391,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="28.56640625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="75.296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2293,13 +2308,13 @@
         <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>126</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>77</v>
@@ -2317,7 +2332,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -2329,7 +2344,7 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>121</v>
@@ -2337,13 +2352,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -2368,14 +2383,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -2444,7 +2459,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2547,7 +2562,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2652,7 +2667,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2695,7 +2710,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2757,7 +2772,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s" s="2">
         <v>123</v>
@@ -2786,10 +2801,10 @@
         <v>124</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2816,13 +2831,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>140</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>141</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2840,7 +2855,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2852,7 +2867,7 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>121</v>
@@ -2860,13 +2875,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2891,14 +2906,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2967,7 +2982,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -3070,7 +3085,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -3175,7 +3190,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -3218,7 +3233,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3280,7 +3295,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>123</v>
@@ -3306,13 +3321,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3363,7 +3378,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3375,7 +3390,7 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>121</v>
@@ -3383,13 +3398,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3414,14 +3429,14 @@
         <v>94</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3490,7 +3505,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3593,7 +3608,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3698,7 +3713,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3741,7 +3756,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3803,7 +3818,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
         <v>123</v>
@@ -3829,13 +3844,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3886,7 +3901,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3898,7 +3913,7 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>121</v>
@@ -3906,13 +3921,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3937,14 +3952,14 @@
         <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -4013,7 +4028,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>106</v>
@@ -4116,7 +4131,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>108</v>
@@ -4221,7 +4236,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>114</v>
@@ -4264,7 +4279,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -4326,7 +4341,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>123</v>
@@ -4352,13 +4367,13 @@
         <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4409,7 +4424,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -4421,7 +4436,7 @@
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>121</v>
@@ -4429,13 +4444,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>77</v>
@@ -4460,14 +4475,14 @@
         <v>94</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -4536,7 +4551,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>106</v>
@@ -4639,7 +4654,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>108</v>
@@ -4744,7 +4759,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>114</v>
@@ -4787,7 +4802,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>77</v>
@@ -4849,7 +4864,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>123</v>
@@ -4875,13 +4890,13 @@
         <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -4932,7 +4947,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -4944,7 +4959,7 @@
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>121</v>
@@ -4952,13 +4967,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>77</v>
@@ -4983,14 +4998,14 @@
         <v>94</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5059,7 +5074,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>106</v>
@@ -5162,7 +5177,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>108</v>
@@ -5267,7 +5282,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>114</v>
@@ -5310,7 +5325,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>77</v>
@@ -5372,7 +5387,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>123</v>
@@ -5398,13 +5413,13 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5455,7 +5470,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -5467,7 +5482,7 @@
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>121</v>
@@ -5475,13 +5490,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>77</v>
@@ -5506,14 +5521,14 @@
         <v>94</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -5582,7 +5597,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>106</v>
@@ -5685,7 +5700,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>108</v>
@@ -5788,13 +5803,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5819,14 +5834,14 @@
         <v>94</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5895,10 +5910,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5998,10 +6013,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6103,10 +6118,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6146,7 +6161,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6208,10 +6223,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6234,13 +6249,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6291,7 +6306,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -6303,7 +6318,7 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>121</v>
@@ -6311,13 +6326,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6342,14 +6357,14 @@
         <v>94</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6418,10 +6433,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6521,10 +6536,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6626,10 +6641,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6669,7 +6684,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6731,10 +6746,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6757,13 +6772,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6814,7 +6829,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -6826,7 +6841,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>121</v>
@@ -6834,13 +6849,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>77</v>
@@ -6865,14 +6880,14 @@
         <v>94</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
@@ -6941,10 +6956,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7044,10 +7059,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7149,10 +7164,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7192,7 +7207,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>77</v>
@@ -7254,10 +7269,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7280,13 +7295,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -7337,7 +7352,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -7349,7 +7364,7 @@
         <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>121</v>
@@ -7357,13 +7372,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>108</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7388,14 +7403,14 @@
         <v>94</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7464,10 +7479,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7567,10 +7582,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7578,7 +7593,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>79</v>
@@ -7670,13 +7685,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>77</v>
@@ -7701,14 +7716,14 @@
         <v>94</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -7777,10 +7792,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7880,10 +7895,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -7985,10 +8000,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8028,7 +8043,7 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="S64" t="s" s="2">
         <v>77</v>
@@ -8090,10 +8105,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8116,13 +8131,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8173,7 +8188,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -8185,7 +8200,7 @@
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>121</v>
@@ -8193,13 +8208,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -8224,14 +8239,14 @@
         <v>94</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -8300,10 +8315,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8403,10 +8418,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8508,10 +8523,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8551,7 +8566,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -8613,10 +8628,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8639,13 +8654,13 @@
         <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8696,7 +8711,7 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -8708,7 +8723,7 @@
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>121</v>
@@ -8716,13 +8731,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -8747,14 +8762,14 @@
         <v>94</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -8823,10 +8838,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -8926,10 +8941,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9029,13 +9044,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>77</v>
@@ -9060,10 +9075,10 @@
         <v>94</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -9134,10 +9149,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -9237,10 +9252,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9342,10 +9357,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9385,7 +9400,7 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" t="s" s="2">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="S77" t="s" s="2">
         <v>77</v>
@@ -9447,10 +9462,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9476,13 +9491,13 @@
         <v>87</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -9490,7 +9505,7 @@
       </c>
       <c r="Q78" s="2"/>
       <c r="R78" t="s" s="2">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="S78" t="s" s="2">
         <v>77</v>
@@ -9532,7 +9547,7 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -9544,7 +9559,7 @@
         <v>77</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>121</v>
@@ -9552,13 +9567,13 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>77</v>
@@ -9583,14 +9598,14 @@
         <v>94</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -9659,10 +9674,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -9762,10 +9777,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -9867,10 +9882,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -9910,7 +9925,7 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="S82" t="s" s="2">
         <v>77</v>
@@ -9972,10 +9987,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -9998,13 +10013,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10055,7 +10070,7 @@
         <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -10067,7 +10082,7 @@
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>121</v>
@@ -10075,13 +10090,13 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
@@ -10106,14 +10121,14 @@
         <v>94</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -10182,10 +10197,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -10285,10 +10300,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10390,10 +10405,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -10433,7 +10448,7 @@
       </c>
       <c r="Q87" s="2"/>
       <c r="R87" t="s" s="2">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="S87" t="s" s="2">
         <v>77</v>
@@ -10495,10 +10510,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10521,13 +10536,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10578,7 +10593,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -10590,7 +10605,7 @@
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>121</v>
@@ -10598,10 +10613,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -10641,7 +10656,7 @@
       </c>
       <c r="Q89" s="2"/>
       <c r="R89" t="s" s="2">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="S89" t="s" s="2">
         <v>77</v>
@@ -10703,10 +10718,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10729,13 +10744,13 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -10786,7 +10801,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
@@ -10798,7 +10813,7 @@
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>121</v>
@@ -10806,10 +10821,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -10849,7 +10864,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -10911,10 +10926,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -10937,13 +10952,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -10994,7 +11009,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -11006,7 +11021,7 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>121</v>
@@ -11014,7 +11029,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>114</v>
@@ -11057,7 +11072,7 @@
       </c>
       <c r="Q93" s="2"/>
       <c r="R93" t="s" s="2">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="S93" t="s" s="2">
         <v>77</v>
@@ -11119,7 +11134,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>123</v>
@@ -11145,13 +11160,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11202,7 +11217,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -11214,7 +11229,7 @@
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>121</v>
@@ -11222,13 +11237,13 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>77</v>
@@ -11253,14 +11268,14 @@
         <v>94</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -11329,7 +11344,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>106</v>
@@ -11432,7 +11447,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>108</v>
@@ -11537,7 +11552,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="B98" t="s" s="2">
         <v>114</v>
@@ -11580,7 +11595,7 @@
       </c>
       <c r="Q98" s="2"/>
       <c r="R98" t="s" s="2">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="S98" t="s" s="2">
         <v>77</v>
@@ -11642,7 +11657,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B99" t="s" s="2">
         <v>123</v>
@@ -11668,13 +11683,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -11725,7 +11740,7 @@
         <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -11737,7 +11752,7 @@
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>121</v>
@@ -11850,10 +11865,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -11876,13 +11891,13 @@
         <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -11933,7 +11948,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -11945,7 +11960,7 @@
         <v>77</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK101" t="s" s="2">
         <v>121</v>
